--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1533.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1533.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.799273047291963</v>
+        <v>1.826168894767761</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>4.6402907371521</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.000645160675049</v>
       </c>
       <c r="D1">
-        <v>0.9674013541226166</v>
+        <v>1.230011701583862</v>
       </c>
       <c r="E1">
-        <v>0.631497537941195</v>
+        <v>0.7893243432044983</v>
       </c>
     </row>
   </sheetData>
